--- a/appointments_20250906.xlsx
+++ b/appointments_20250906.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>appointment_id</t>
   </si>
@@ -61,6 +61,12 @@
     <t>APT9E426F42</t>
   </si>
   <si>
+    <t>APT0B36029B</t>
+  </si>
+  <si>
+    <t>APT65D3F289</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -76,6 +82,12 @@
     <t>2025-09-09</t>
   </si>
   <si>
+    <t>2025-09-10</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
+  </si>
+  <si>
     <t>10:00 - 10:30</t>
   </si>
   <si>
@@ -85,6 +97,12 @@
     <t>10:30 - 11:00</t>
   </si>
   <si>
+    <t>11:00 - 11:30</t>
+  </si>
+  <si>
+    <t>14:00 - 14:30</t>
+  </si>
+  <si>
     <t>Dr. Smith</t>
   </si>
   <si>
@@ -113,6 +131,12 @@
   </si>
   <si>
     <t>2025-09-06 12:43:24</t>
+  </si>
+  <si>
+    <t>2025-09-06 14:06:46</t>
+  </si>
+  <si>
+    <t>2025-09-06 14:17:42</t>
   </si>
 </sst>
 </file>
@@ -470,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +543,31 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -551,37 +575,37 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>917133939850</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -589,37 +613,113 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F4">
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>917133939850</v>
       </c>
       <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="L4" t="s">
-        <v>32</v>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5">
+        <v>917133939850</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6">
+        <v>917133939850</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
